--- a/ev.xlsx
+++ b/ev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e22b8e11b397fbcd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e22b8e11b397fbcd/Escritorio/Master Data Science/Tercer Semestre/Financial Data/proyect/LITIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E3FE0FF7-7199-433E-826B-15C126D899E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA71E8D7-AE62-4ECB-B1D6-9307985FB81C}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{E3FE0FF7-7199-433E-826B-15C126D899E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40A556AB-ED40-460B-B663-FC86D44EFC01}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="15576" activeTab="1" xr2:uid="{46247215-591E-47A1-A122-96AFE30F5F79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="15576" xr2:uid="{46247215-591E-47A1-A122-96AFE30F5F79}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_world_stock" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>ev_world_stock</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>EV_USA</t>
+  </si>
+  <si>
+    <t>PHEV</t>
+  </si>
+  <si>
+    <t>BEV</t>
   </si>
 </sst>
 </file>
@@ -107,8 +110,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,6 +127,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,439 +430,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B20DE33-D44F-4ED7-9829-BC566D077782}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A2:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B3">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9500</v>
+      </c>
+      <c r="C3">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B4">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70000</v>
+      </c>
+      <c r="C4">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B5">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>160000</v>
+      </c>
+      <c r="C5">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B6">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>300000</v>
+      </c>
+      <c r="C6">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B7">
-        <v>58000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>520000</v>
+      </c>
+      <c r="C7">
+        <v>740000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B8">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>810000</v>
+      </c>
+      <c r="C8">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B9">
-        <v>91000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1200000</v>
+      </c>
+      <c r="C9">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B10">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1800000</v>
+      </c>
+      <c r="C10">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B11">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2400000</v>
+      </c>
+      <c r="C11">
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="B12">
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3400000</v>
+      </c>
+      <c r="C12">
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="B13">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5200000</v>
+      </c>
+      <c r="C13">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="B14">
-        <v>290000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2016</v>
-      </c>
-      <c r="B15">
-        <v>460000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2017</v>
-      </c>
-      <c r="B16">
-        <v>760000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2017</v>
-      </c>
-      <c r="B17">
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2018</v>
-      </c>
-      <c r="B18">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2019</v>
-      </c>
-      <c r="B20">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2019</v>
-      </c>
-      <c r="B21">
-        <v>580000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2020</v>
-      </c>
-      <c r="B22">
-        <v>970000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2020</v>
-      </c>
-      <c r="B23">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2021</v>
-      </c>
-      <c r="B24">
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2021</v>
-      </c>
-      <c r="B25">
-        <v>1900000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2022</v>
-      </c>
-      <c r="B26">
-        <v>2900000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2022</v>
-      </c>
-      <c r="B27">
-        <v>7300000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2010</v>
-      </c>
-      <c r="B28">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2010</v>
-      </c>
-      <c r="B29">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2011</v>
-      </c>
-      <c r="B30">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2011</v>
-      </c>
-      <c r="B31">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2012</v>
-      </c>
-      <c r="B32">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2012</v>
-      </c>
-      <c r="B33">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2013</v>
-      </c>
-      <c r="B34">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2013</v>
-      </c>
-      <c r="B35">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2014</v>
-      </c>
-      <c r="B36">
-        <v>410000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2014</v>
-      </c>
-      <c r="B37">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2015</v>
-      </c>
-      <c r="B38">
-        <v>520000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2015</v>
-      </c>
-      <c r="B39">
-        <v>740000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2016</v>
-      </c>
-      <c r="B40">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2016</v>
-      </c>
-      <c r="B41">
-        <v>810000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2017</v>
-      </c>
-      <c r="B42">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2017</v>
-      </c>
-      <c r="B43">
-        <v>1900000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>2018</v>
-      </c>
-      <c r="B44">
-        <v>3300000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2018</v>
-      </c>
-      <c r="B45">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>2019</v>
-      </c>
-      <c r="B46">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>2019</v>
-      </c>
-      <c r="B47">
-        <v>4800000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>2020</v>
-      </c>
-      <c r="B48">
-        <v>6800000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>2020</v>
-      </c>
-      <c r="B49">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>2021</v>
-      </c>
-      <c r="B50">
-        <v>5200000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2021</v>
-      </c>
-      <c r="B51">
-        <v>11000000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>2022</v>
-      </c>
-      <c r="B52">
+        <v>7900000</v>
+      </c>
+      <c r="C14">
         <v>18000000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>2022</v>
-      </c>
-      <c r="B53">
-        <v>7900000</v>
       </c>
     </row>
   </sheetData>
@@ -867,37 +604,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEE887C-8BC0-4CEB-9004-AF00FAC4078D}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44105</v>
       </c>
       <c r="B2">
@@ -906,23 +643,23 @@
       <c r="C2">
         <v>27</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>25.8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>B2+C2</f>
         <v>153</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>D2+E2</f>
         <v>34.6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>44136</v>
       </c>
       <c r="B3">
@@ -931,23 +668,23 @@
       <c r="C3">
         <v>32</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>27.6</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F31" si="0">B3+C3</f>
         <v>201</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G31" si="1">D3+E3</f>
         <v>35.799999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>44166</v>
       </c>
       <c r="B4">
@@ -956,23 +693,23 @@
       <c r="C4">
         <v>35</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>38.799999999999997</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>9.6</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>48.4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>44197</v>
       </c>
       <c r="B5">
@@ -981,23 +718,23 @@
       <c r="C5">
         <v>28</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>18.2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>6.2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>24.4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>44228</v>
       </c>
       <c r="B6">
@@ -1006,23 +743,23 @@
       <c r="C6">
         <v>18</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>26.9</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>35.9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>44256</v>
       </c>
       <c r="B7">
@@ -1031,23 +768,23 @@
       <c r="C7">
         <v>35</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>53.6</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>12</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>65.599999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>44287</v>
       </c>
       <c r="B8">
@@ -1056,23 +793,23 @@
       <c r="C8">
         <v>34</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>29.4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>12.3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>41.7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>44317</v>
       </c>
       <c r="B9">
@@ -1081,23 +818,23 @@
       <c r="C9">
         <v>37</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>35.9</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>44348</v>
       </c>
       <c r="B10">
@@ -1106,23 +843,23 @@
       <c r="C10">
         <v>44</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>51.8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>21.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>73.3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>44378</v>
       </c>
       <c r="B11">
@@ -1131,23 +868,23 @@
       <c r="C11">
         <v>50</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>36.200000000000003</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>53.6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>44409</v>
       </c>
       <c r="B12">
@@ -1156,23 +893,23 @@
       <c r="C12">
         <v>59</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>36.9</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>16.7</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>287</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>53.599999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>44440</v>
       </c>
       <c r="B13">
@@ -1181,23 +918,23 @@
       <c r="C13">
         <v>65</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>51.5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>15.2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>66.7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>44470</v>
       </c>
       <c r="B14">
@@ -1206,23 +943,23 @@
       <c r="C14">
         <v>69</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>37.299999999999997</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>54.4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>44501</v>
       </c>
       <c r="B15">
@@ -1231,23 +968,23 @@
       <c r="C15">
         <v>92</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>40.9</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>14.5</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>415</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>55.4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>44531</v>
       </c>
       <c r="B16">
@@ -1256,23 +993,23 @@
       <c r="C16">
         <v>91</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>65.099999999999994</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>509</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>82.199999999999989</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>44562</v>
       </c>
       <c r="B17">
@@ -1281,23 +1018,23 @@
       <c r="C17">
         <v>88</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>36.4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>11.6</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>44593</v>
       </c>
       <c r="B18">
@@ -1306,23 +1043,23 @@
       <c r="C18">
         <v>75</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>47.4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>12.9</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>291</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>60.3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>44621</v>
       </c>
       <c r="B19">
@@ -1331,23 +1068,23 @@
       <c r="C19">
         <v>88</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>75.2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>17.7</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>456</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>92.9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>44652</v>
       </c>
       <c r="B20">
@@ -1356,23 +1093,23 @@
       <c r="C20">
         <v>70</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>52.2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>15.4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>67.600000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>44682</v>
       </c>
       <c r="B21">
@@ -1381,23 +1118,23 @@
       <c r="C21">
         <v>101</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>60</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>15.8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>75.8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>44713</v>
       </c>
       <c r="B22">
@@ -1406,23 +1143,23 @@
       <c r="C22">
         <v>118</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>70.599999999999994</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>17</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>557</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>87.6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>44743</v>
       </c>
       <c r="B23">
@@ -1431,23 +1168,23 @@
       <c r="C23">
         <v>134</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>64.7</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>14</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>502</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>78.7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>44774</v>
       </c>
       <c r="B24">
@@ -1456,23 +1193,23 @@
       <c r="C24">
         <v>140</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>66.599999999999994</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>14</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>553</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>80.599999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>44805</v>
       </c>
       <c r="B25">
@@ -1481,23 +1218,23 @@
       <c r="C25">
         <v>161</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>76.3</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>13.5</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>635</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>89.8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>44835</v>
       </c>
       <c r="B26">
@@ -1506,23 +1243,23 @@
       <c r="C26">
         <v>169</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>75.5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>16.3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f t="shared" si="0"/>
         <v>577</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>91.8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>44866</v>
       </c>
       <c r="B27">
@@ -1531,23 +1268,23 @@
       <c r="C27">
         <v>173</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>71.3</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>628</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>91.199999999999989</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>44896</v>
       </c>
       <c r="B28">
@@ -1556,23 +1293,23 @@
       <c r="C28">
         <v>200</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>98.4</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>21.1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>671</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <f t="shared" si="1"/>
         <v>119.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>44927</v>
       </c>
       <c r="B29">
@@ -1581,23 +1318,23 @@
       <c r="C29">
         <v>125</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>85.9</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>16</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <f t="shared" si="1"/>
         <v>101.9</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>44958</v>
       </c>
       <c r="B30">
@@ -1606,23 +1343,23 @@
       <c r="C30">
         <v>150</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>87.4</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>18.5</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
         <v>462</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <f t="shared" si="1"/>
         <v>105.9</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>44986</v>
       </c>
       <c r="B31">
@@ -1631,17 +1368,17 @@
       <c r="C31">
         <v>163</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>90.8</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>22.9</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>558</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <f t="shared" si="1"/>
         <v>113.69999999999999</v>
       </c>
